--- a/AAA-Luban-Excel/Datas/Weapon.xlsx
+++ b/AAA-Luban-Excel/Datas/Weapon.xlsx
@@ -1,33 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Game Project\Project-A\AAA-Luban-Excel\Datas\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8AE2ACF-B3A4-4236-A6C6-3D45DA08DC20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="56">
   <si>
     <t>##var</t>
   </si>
@@ -177,9 +170,6 @@
   </si>
   <si>
     <t>手枪</t>
-  </si>
-  <si>
-    <t>Null</t>
   </si>
   <si>
     <t>霰弹枪</t>
@@ -203,375 +193,39 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -579,255 +233,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -849,65 +261,18 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1157,25 +522,25 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:J16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="3" width="9" style="1"/>
-    <col min="4" max="4" width="29.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="23.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="22.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="19.125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="29.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="23.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="22.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" style="2" customWidth="1"/>
     <col min="8" max="9" width="9" style="2"/>
     <col min="10" max="10" width="16" style="2" customWidth="1"/>
   </cols>
@@ -1274,7 +639,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" ht="84" customHeight="1" spans="1:10">
+    <row r="4" spans="1:10" ht="84" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>16</v>
       </c>
@@ -1306,7 +671,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="1:10">
       <c r="B5" s="1">
         <v>1001</v>
       </c>
@@ -1335,7 +700,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="2:10">
+    <row r="6" spans="1:10">
       <c r="B6" s="1">
         <v>1002</v>
       </c>
@@ -1364,7 +729,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="2:10">
+    <row r="7" spans="1:10">
       <c r="B7" s="1">
         <v>1003</v>
       </c>
@@ -1393,7 +758,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="2:10">
+    <row r="8" spans="1:10">
       <c r="B8" s="1">
         <v>1004</v>
       </c>
@@ -1422,7 +787,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="2:10">
+    <row r="9" spans="1:10">
       <c r="B9" s="1">
         <v>1005</v>
       </c>
@@ -1451,15 +816,41 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="6:6">
-      <c r="F10" s="7"/>
-    </row>
-    <row r="11" spans="2:10">
+    <row r="10" spans="1:10">
+      <c r="B10" s="1">
+        <v>1010</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="B11" s="1">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>27</v>
@@ -1474,21 +865,21 @@
         <v>30</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="B12" s="1">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>27</v>
@@ -1503,50 +894,50 @@
         <v>30</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="B13" s="1">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>28</v>
+      <c r="E13" s="1">
+        <v>1</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="G13" s="2" t="s">
-        <v>30</v>
+      <c r="G13" s="2">
+        <v>5000</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>35</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="B14" s="1">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>27</v>
@@ -1557,80 +948,50 @@
       <c r="F14" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="G14" s="2" t="s">
-        <v>50</v>
+      <c r="G14" s="2">
+        <v>5000</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="B15" s="1">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="1">
-        <v>1</v>
+      <c r="E15" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>29</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10">
-      <c r="B16" s="1">
-        <v>1015</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="H16" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>56</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/AAA-Luban-Excel/Datas/Weapon.xlsx
+++ b/AAA-Luban-Excel/Datas/Weapon.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Game Project\Project-A\AAA-Luban-Excel\Datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KaiJuNaibu\Desktop\Project\Project-A\AAA-Luban-Excel\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8AE2ACF-B3A4-4236-A6C6-3D45DA08DC20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A39A123-F3CB-4992-A9E8-A69AE932D8E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2130" yWindow="285" windowWidth="13680" windowHeight="13080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -194,25 +194,32 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -239,7 +246,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -249,16 +256,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -531,31 +535,31 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="3" width="9" style="1"/>
-    <col min="4" max="4" width="29.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="23.42578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="22.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="19.140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="29.1328125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="23.3984375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="22.3984375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19.1328125" style="2" customWidth="1"/>
     <col min="8" max="9" width="9" style="2"/>
     <col min="10" max="10" width="16" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
@@ -577,17 +581,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E2" s="4" t="s">
@@ -609,15 +613,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="4"/>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E3" s="4" t="s">
@@ -639,17 +643,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="84" customHeight="1">
+    <row r="4" spans="1:10" ht="84" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>19</v>
       </c>
       <c r="E4" s="4" t="s">
@@ -671,7 +675,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B5" s="1">
         <v>1001</v>
       </c>
@@ -684,7 +688,7 @@
       <c r="E5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="5" t="s">
         <v>29</v>
       </c>
       <c r="G5" s="2" t="s">
@@ -700,7 +704,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B6" s="1">
         <v>1002</v>
       </c>
@@ -713,7 +717,7 @@
       <c r="E6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="5" t="s">
         <v>29</v>
       </c>
       <c r="G6" s="2" t="s">
@@ -729,7 +733,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B7" s="1">
         <v>1003</v>
       </c>
@@ -742,7 +746,7 @@
       <c r="E7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="5" t="s">
         <v>29</v>
       </c>
       <c r="G7" s="2" t="s">
@@ -758,7 +762,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B8" s="1">
         <v>1004</v>
       </c>
@@ -771,7 +775,7 @@
       <c r="E8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="5" t="s">
         <v>29</v>
       </c>
       <c r="G8" s="2" t="s">
@@ -787,7 +791,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B9" s="1">
         <v>1005</v>
       </c>
@@ -800,7 +804,7 @@
       <c r="E9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="5" t="s">
         <v>29</v>
       </c>
       <c r="G9" s="2" t="s">
@@ -816,9 +820,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B10" s="1">
-        <v>1010</v>
+        <v>1006</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>45</v>
@@ -829,7 +833,7 @@
       <c r="E10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="5" t="s">
         <v>29</v>
       </c>
       <c r="G10" s="2" t="s">
@@ -845,9 +849,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B11" s="1">
-        <v>1011</v>
+        <v>1007</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>46</v>
@@ -858,7 +862,7 @@
       <c r="E11" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="5" t="s">
         <v>29</v>
       </c>
       <c r="G11" s="2" t="s">
@@ -874,9 +878,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B12" s="1">
-        <v>1012</v>
+        <v>1008</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>48</v>
@@ -887,7 +891,7 @@
       <c r="E12" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="5" t="s">
         <v>29</v>
       </c>
       <c r="G12" s="2" t="s">
@@ -903,9 +907,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B13" s="1">
-        <v>1013</v>
+        <v>1100</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>49</v>
@@ -916,7 +920,7 @@
       <c r="E13" s="1">
         <v>1</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F13" s="5" t="s">
         <v>29</v>
       </c>
       <c r="G13" s="2">
@@ -932,9 +936,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B14" s="1">
-        <v>1014</v>
+        <v>1101</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>50</v>
@@ -945,7 +949,7 @@
       <c r="E14" s="1">
         <v>1</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="F14" s="5" t="s">
         <v>29</v>
       </c>
       <c r="G14" s="2">
@@ -961,9 +965,9 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B15" s="1">
-        <v>1015</v>
+        <v>1102</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>52</v>
@@ -974,7 +978,7 @@
       <c r="E15" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="F15" s="5" t="s">
         <v>29</v>
       </c>
       <c r="G15" s="2" t="s">
@@ -991,6 +995,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>

--- a/AAA-Luban-Excel/Datas/Weapon.xlsx
+++ b/AAA-Luban-Excel/Datas/Weapon.xlsx
@@ -1,26 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28324"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KaiJuNaibu\Desktop\Project\Project-A\AAA-Luban-Excel\Datas\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A39A123-F3CB-4992-A9E8-A69AE932D8E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2130" yWindow="285" windowWidth="13680" windowHeight="13080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="65">
   <si>
     <t>##var</t>
   </si>
@@ -103,7 +110,7 @@
     <t>匕首</t>
   </si>
   <si>
-    <t>物品描述</t>
+    <t>像是某种宗教仪式的器具，用途不详，外观不祥。小矩形范围刺击。</t>
   </si>
   <si>
     <t>1</t>
@@ -124,6 +131,9 @@
     <t>刺剑</t>
   </si>
   <si>
+    <t>原来它是还没断的匕首。中矩形范围刺击。</t>
+  </si>
+  <si>
     <t>2</t>
   </si>
   <si>
@@ -136,7 +146,13 @@
     <t>菜刀</t>
   </si>
   <si>
-    <t>太刀</t>
+    <t>因血液而生锈的斑驳，能嗅到曾刻于其上的惨叫。小扇形范围劈砍。</t>
+  </si>
+  <si>
+    <t>唐刀</t>
+  </si>
+  <si>
+    <t>老旧的唐刀，端庄的外观勉强能在这鬼地方给人一丝心理上的慰藉。中扇形范围劈砍。</t>
   </si>
   <si>
     <t>3</t>
@@ -148,6 +164,9 @@
     <t>消防斧</t>
   </si>
   <si>
+    <t>不仅能救火，还能让怪物们明白你不仅是来灭火的。超大扇形范围劈砍。</t>
+  </si>
+  <si>
     <t>5</t>
   </si>
   <si>
@@ -160,41 +179,62 @@
     <t>榔头</t>
   </si>
   <si>
+    <t>即是工具，也是武器，它是最容易使用的钝器代表。小圆形范围概率击晕，概率随角色力量值变化。</t>
+  </si>
+  <si>
     <t>大锤</t>
   </si>
   <si>
+    <t>它重、它响，它更容易击晕敌人，绝对能让人记住你来过。中圆形范围概率击晕，概率随角色力量值变化。</t>
+  </si>
+  <si>
     <t>24</t>
   </si>
   <si>
     <t>棒球棍</t>
   </si>
   <si>
+    <t>“你可能在球场上安全，但这里不行。”中扇形范围概率击退，概率随角色力量值变化。</t>
+  </si>
+  <si>
     <t>手枪</t>
   </si>
   <si>
+    <t>一点点火力，能让你轻松解决问题，或者至少威胁一下。</t>
+  </si>
+  <si>
     <t>霰弹枪</t>
   </si>
   <si>
+    <t>扇形设计，且距离越近伤害越高，在印象里是匪徒的武器。</t>
+  </si>
+  <si>
     <t>0.4</t>
   </si>
   <si>
     <t>打火机</t>
   </si>
   <si>
+    <t>这是你与易燃物交流的唯一渠道，使用时还可以微微照亮四周。</t>
+  </si>
+  <si>
     <t>30</t>
   </si>
   <si>
     <t>0</t>
-  </si>
-  <si>
-    <t>0.8</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -206,33 +246,356 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -240,9 +603,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -266,17 +871,61 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -526,30 +1175,30 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="3" width="9" style="1"/>
-    <col min="4" max="4" width="29.1328125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="23.3984375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="22.3984375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="19.1328125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="104.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="23.4" style="1" customWidth="1"/>
+    <col min="6" max="6" width="22.4" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19.1333333333333" style="2" customWidth="1"/>
     <col min="8" max="9" width="9" style="2"/>
     <col min="10" max="10" width="16" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -581,7 +1230,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10">
       <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
@@ -613,7 +1262,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10">
       <c r="A3" s="3" t="s">
         <v>14</v>
       </c>
@@ -643,7 +1292,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="84" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" ht="84" customHeight="1" spans="1:10">
       <c r="A4" s="3" t="s">
         <v>16</v>
       </c>
@@ -675,7 +1324,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:10">
       <c r="B5" s="1">
         <v>1001</v>
       </c>
@@ -704,7 +1353,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:10">
       <c r="B6" s="1">
         <v>1002</v>
       </c>
@@ -712,7 +1361,7 @@
         <v>33</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>28</v>
@@ -724,24 +1373,24 @@
         <v>30</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:10">
       <c r="B7" s="1">
         <v>1003</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>28</v>
@@ -762,15 +1411,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:10">
       <c r="B8" s="1">
         <v>1004</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>28</v>
@@ -782,24 +1431,24 @@
         <v>30</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:10">
       <c r="B9" s="1">
         <v>1005</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>28</v>
@@ -811,24 +1460,24 @@
         <v>30</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:10">
       <c r="B10" s="1">
         <v>1006</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>28</v>
@@ -840,24 +1489,24 @@
         <v>30</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>31</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:10">
       <c r="B11" s="1">
         <v>1007</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>28</v>
@@ -869,24 +1518,24 @@
         <v>30</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:10">
       <c r="B12" s="1">
         <v>1008</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>28</v>
@@ -898,24 +1547,24 @@
         <v>30</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:10">
       <c r="B13" s="1">
         <v>1100</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="E13" s="1">
         <v>1</v>
@@ -930,21 +1579,21 @@
         <v>28</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:10">
       <c r="B14" s="1">
         <v>1101</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="E14" s="1">
         <v>1</v>
@@ -956,24 +1605,24 @@
         <v>5000</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:10">
       <c r="B15" s="1">
         <v>1102</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>28</v>
@@ -982,21 +1631,21 @@
         <v>29</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>55</v>
+        <v>64</v>
+      </c>
+      <c r="J15" s="2">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>